--- a/Project Management/Project Management Dashboard.xlsx
+++ b/Project Management/Project Management Dashboard.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinakuzmina/Desktop/repos/analysis/excel/Project Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinakuzmina/Desktop/repos/excel-dashboards/Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97648AF-2F7B-3540-BEB3-88F648066257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1250A2CF-4AAE-E149-A1DF-A9490749A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="2240" windowWidth="38080" windowHeight="23560" tabRatio="664" activeTab="2" xr2:uid="{599CBDBA-6DCB-491A-8F55-440439BE8440}"/>
+    <workbookView xWindow="3500" yWindow="2420" windowWidth="47160" windowHeight="23560" tabRatio="664" activeTab="2" xr2:uid="{599CBDBA-6DCB-491A-8F55-440439BE8440}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Pivot tabels" sheetId="3" r:id="rId2"/>
+    <sheet name="Pivot_tabels" sheetId="3" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId4"/>
+    <pivotCache cacheId="38" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="48">
   <si>
     <t>Project</t>
   </si>
@@ -188,19 +188,33 @@
   <si>
     <t>Doughnut chart</t>
   </si>
+  <si>
+    <t>Scroll Bar</t>
+  </si>
+  <si>
+    <t>Days comp.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#.#,,\M"/>
+    <numFmt numFmtId="169" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -243,7 +257,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,9 +297,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -290,20 +310,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -313,12 +326,3258 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="613">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
@@ -326,6 +3585,60 @@
       <alignment horizontal="right"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -333,246 +3646,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -641,8 +3714,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="No Border" pivot="0" table="0" count="10" xr9:uid="{EEEA172B-89F3-489D-B80E-D598FE9BFA19}">
-      <tableStyleElement type="wholeTable" dxfId="92"/>
-      <tableStyleElement type="headerRow" dxfId="91"/>
+      <tableStyleElement type="wholeTable" dxfId="612"/>
+      <tableStyleElement type="headerRow" dxfId="611"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1034,7 +4107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tabels'!$A$2</c:f>
+              <c:f>Pivot_tabels!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1156,7 +4229,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tabels'!$B$2</c:f>
+              <c:f>Pivot_tabels!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1177,7 +4250,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tabels'!$A$3</c:f>
+              <c:f>Pivot_tabels!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,7 +4329,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tabels'!$B$3</c:f>
+              <c:f>Pivot_tabels!$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1277,7 +4350,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tabels'!$A$4</c:f>
+              <c:f>Pivot_tabels!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1356,7 +4429,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tabels'!$B$4</c:f>
+              <c:f>Pivot_tabels!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1525,10 +4598,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2825307732254051"/>
-          <c:y val="0.25273099966639867"/>
-          <c:w val="0.35998194395165417"/>
-          <c:h val="0.36292068964852298"/>
+          <c:x val="0.28253082154416853"/>
+          <c:y val="0.23434134183076791"/>
+          <c:w val="0.32334340779759707"/>
+          <c:h val="0.32614182265917124"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1578,7 +4651,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tabels'!$G$3:$G$4</c:f>
+              <c:f>Pivot_tabels!$G$3:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1592,7 +4665,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tabels'!$H$3:$H$4</c:f>
+              <c:f>Pivot_tabels!$H$3:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1808,10 +4881,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13254594457789598"/>
-          <c:y val="0.34236530725216474"/>
-          <c:w val="0.6738221359844061"/>
-          <c:h val="0.49241660734113685"/>
+          <c:x val="0.15519733750210685"/>
+          <c:y val="0.32587112329919993"/>
+          <c:w val="0.58321688174910136"/>
+          <c:h val="0.42468750344981643"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1861,7 +4934,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tabels'!$K$5:$L$5</c:f>
+              <c:f>Pivot_tabels!$K$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1952,7 +5025,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Project Management Dashboard.xlsx]Pivot tabels!PivotTable3</c:name>
+    <c:name>[Project Management Dashboard.xlsx]Pivot_tabels!PivotTable3</c:name>
     <c:fmtId val="18"/>
   </c:pivotSource>
   <c:chart>
@@ -2310,7 +5383,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tabels'!$K$3</c:f>
+              <c:f>Pivot_tabels!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2391,7 +5464,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tabels'!$K$4</c:f>
+              <c:f>Pivot_tabels!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2402,7 +5475,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tabels'!$K$4</c:f>
+              <c:f>Pivot_tabels!$K$4</c:f>
               <c:numCache>
                 <c:formatCode>#.#\ \ \M</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2423,7 +5496,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot tabels'!$L$3</c:f>
+              <c:f>Pivot_tabels!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2504,7 +5577,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot tabels'!$K$4</c:f>
+              <c:f>Pivot_tabels!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2515,7 +5588,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot tabels'!$L$4</c:f>
+              <c:f>Pivot_tabels!$L$4</c:f>
               <c:numCache>
                 <c:formatCode>#.#\ \ \M</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4846,7 +7919,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" horiz="1" max="100" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="Pivot_tabels!$N$4" horiz="1" max="30" page="7" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4869,7 +7942,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52DADD6-19BC-B948-991F-C516C2C68D5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4907,7 +7980,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B79BC7-26DD-4A43-85D4-F65FC045163E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4945,7 +8018,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E955832-8CB0-744C-944F-E1393D64CC70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4985,7 +8058,7 @@
             <xdr:cNvPr id="6" name="Project">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F4F310-4384-E313-4554-DF60D6F3077D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5063,7 +8136,7 @@
             <xdr:cNvPr id="7" name="Manager">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EE39AE-3F36-9620-F18B-A88C4DE99354}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5126,20 +8199,20 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>193524</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12095</xdr:rowOff>
+      <xdr:rowOff>12096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>130024</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101866</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575E873F-1C26-A249-A0A7-3DA421388769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5164,15 +8237,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>21771</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>76201</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>725713</xdr:colOff>
+          <xdr:colOff>723900</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>381001</xdr:rowOff>
+          <xdr:rowOff>368300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5182,7 +8255,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD9B5DA-A379-E9D2-BCDC-B409FC84FA94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5216,14 +8289,14 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36202</cdr:x>
-      <cdr:y>0.31429</cdr:y>
+      <cdr:x>0.337</cdr:x>
+      <cdr:y>0.28184</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.67611</cdr:x>
-      <cdr:y>0.53878</cdr:y>
+      <cdr:x>0.65109</cdr:x>
+      <cdr:y>0.50633</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'Pivot tabels'!$H$3">
+    <cdr:sp macro="" textlink="Pivot_tabels!$H$3">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -5236,8 +8309,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="757088" y="651932"/>
-          <a:ext cx="656844" cy="465667"/>
+          <a:off x="704245" y="583924"/>
+          <a:ext cx="656377" cy="465107"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5318,14 +8391,14 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.26897</cdr:x>
-      <cdr:y>0.41244</cdr:y>
+      <cdr:x>0.24232</cdr:x>
+      <cdr:y>0.35908</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76455</cdr:x>
-      <cdr:y>0.75035</cdr:y>
+      <cdr:x>0.7379</cdr:x>
+      <cdr:y>0.69699</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'Pivot tabels'!$K$5">
+    <cdr:sp macro="" textlink="Pivot_tabels!$K$5">
       <cdr:nvSpPr>
         <cdr:cNvPr id="4" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -5338,8 +8411,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="302879" y="635540"/>
-          <a:ext cx="558065" cy="520696"/>
+          <a:off x="271727" y="552956"/>
+          <a:ext cx="555720" cy="520360"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5998,7 +9071,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1922072-B3F6-D64A-B984-1F10ED97A56A}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1922072-B3F6-D64A-B984-1F10ED97A56A}" name="PivotTable3" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="K3:L4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -6279,7 +9352,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EDA1A7E-B6B9-6347-A977-853631216889}" name="PivotTable2" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EDA1A7E-B6B9-6347-A977-853631216889}" name="PivotTable2" cacheId="38" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D2:E4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -6342,7 +9415,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D4DA184-71F2-1746-9ED0-A1386861AAD3}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D4DA184-71F2-1746-9ED0-A1386861AAD3}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A6:J47" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6423,7 +9496,7 @@
         <item x="13"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField name="Days comp." axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
       <items count="8">
         <item x="4"/>
         <item x="3"/>
@@ -6856,26 +9929,8 @@
     <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="3"/>
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <formats count="5">
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="83">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="82">
+  <formats count="32">
+    <format dxfId="604">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6884,7 +9939,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="603">
       <pivotArea outline="0" fieldPosition="0">
         <references count="9">
           <reference field="4294967294" count="1" selected="0">
@@ -6917,7 +9972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="602">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6925,6 +9980,114 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="601">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="600">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="599">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="598">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="597">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="596">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="595">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="594">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="593">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="592">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="591">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="590">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="589">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="588">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="587">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="586">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="585">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="584">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="581">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="580">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="579">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="578">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="577">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="576">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="575">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="574">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="573">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="572">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" offset="B256:IV256" fieldPosition="0"/>
+    </format>
+    <format dxfId="128">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" offset="A256" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -6995,17 +10158,17 @@
     <tableColumn id="1" xr3:uid="{4ADE78FA-797E-461B-818D-4E6F917859D6}" name="Project"/>
     <tableColumn id="2" xr3:uid="{F9E92030-47E5-4A86-AB73-A1AA5209CD55}" name="Task"/>
     <tableColumn id="3" xr3:uid="{643837EC-0E87-4517-8311-405E12C9047D}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{D2195ACD-57B1-4029-9C54-9ACCE862FA18}" name="Start Date" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{D2195ACD-57B1-4029-9C54-9ACCE862FA18}" name="Start Date" dataDxfId="610"/>
     <tableColumn id="5" xr3:uid="{A5BEB9B6-A13C-4735-8C93-943512962E1A}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{9A8390CA-408A-41FE-A909-4D1F9E77E3F2}" name="End Date" dataDxfId="89">
+    <tableColumn id="9" xr3:uid="{9A8390CA-408A-41FE-A909-4D1F9E77E3F2}" name="End Date" dataDxfId="609">
       <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{06B5F73C-C916-4EC2-88F2-098623EC6F35}" name="Days completed" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{704AC253-E86F-4A7F-BD63-4569C494A728}" name="Progress" dataDxfId="87">
+    <tableColumn id="10" xr3:uid="{06B5F73C-C916-4EC2-88F2-098623EC6F35}" name="Days completed" dataDxfId="608"/>
+    <tableColumn id="6" xr3:uid="{704AC253-E86F-4A7F-BD63-4569C494A728}" name="Progress" dataDxfId="607">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{459C1C51-A35C-450A-B0F0-EA7E00C33AA1}" name="Budget" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{CC94112E-5637-4797-9BDD-BFCC8197D1AB}" name="Actual" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{459C1C51-A35C-450A-B0F0-EA7E00C33AA1}" name="Budget" dataDxfId="606"/>
+    <tableColumn id="8" xr3:uid="{CC94112E-5637-4797-9BDD-BFCC8197D1AB}" name="Actual" dataDxfId="605"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7311,7 +10474,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8769,10 +11932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F759922C-CDE1-CC48-BA2D-DA4DF947C12C}">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:N6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8785,7 +11948,7 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -8797,7 +11960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -8808,7 +11971,7 @@
       <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="23">
         <v>112</v>
       </c>
       <c r="G3" t="s">
@@ -8824,8 +11987,11 @@
       <c r="L3" t="s">
         <v>34</v>
       </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -8836,7 +12002,7 @@
       <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="23">
         <v>266</v>
       </c>
       <c r="G4" t="s">
@@ -8849,18 +12015,21 @@
       <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>8340291</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>19695000</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>B2+B3</f>
         <v>37</v>
       </c>
@@ -8876,7 +12045,7 @@
         <v>0.57652749428789041</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8892,10 +12061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827AB40-3701-514F-9CCF-DEF1B95D471A}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8905,67 +12074,146 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:28" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="17" t="str">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="15" t="str">
         <f>TEXT(MIN(D7:D46),"D-MMM-YY")&amp;" to "&amp;TEXT(MAX(E7:E46),"D-MMM-YY")</f>
         <v>17-Feb-20 to 13-Mar-20</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="20" t="s">
         <v>35</v>
       </c>
+      <c r="K6" s="18">
+        <f>MIN(D7:D46)+Pivot_tabels!N4</f>
+        <v>43878</v>
+      </c>
+      <c r="L6" s="18">
+        <f>+K6+1</f>
+        <v>43879</v>
+      </c>
+      <c r="M6" s="18">
+        <f>+L6+1</f>
+        <v>43880</v>
+      </c>
+      <c r="N6" s="18">
+        <f>+M6+1</f>
+        <v>43881</v>
+      </c>
+      <c r="O6" s="18">
+        <f>+N6+1</f>
+        <v>43882</v>
+      </c>
+      <c r="P6" s="18">
+        <f>+O6+1</f>
+        <v>43883</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>+P6+1</f>
+        <v>43884</v>
+      </c>
+      <c r="R6" s="18">
+        <f>+Q6+1</f>
+        <v>43885</v>
+      </c>
+      <c r="S6" s="18">
+        <f>+R6+1</f>
+        <v>43886</v>
+      </c>
+      <c r="T6" s="18">
+        <f>+S6+1</f>
+        <v>43887</v>
+      </c>
+      <c r="U6" s="18">
+        <f>+T6+1</f>
+        <v>43888</v>
+      </c>
+      <c r="V6" s="18">
+        <f>+U6+1</f>
+        <v>43889</v>
+      </c>
+      <c r="W6" s="18">
+        <f>+V6+1</f>
+        <v>43890</v>
+      </c>
+      <c r="X6" s="18">
+        <f>+W6+1</f>
+        <v>43891</v>
+      </c>
+      <c r="Y6" s="18">
+        <f>+X6+1</f>
+        <v>43892</v>
+      </c>
+      <c r="Z6" s="18">
+        <f>+Y6+1</f>
+        <v>43893</v>
+      </c>
+      <c r="AA6" s="18">
+        <f>+Z6+1</f>
+        <v>43894</v>
+      </c>
+      <c r="AB6" s="18">
+        <f>+AA6+1</f>
+        <v>43895</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -8990,14 +12238,14 @@
       <c r="H7" s="7">
         <v>0.375</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>96000</v>
       </c>
       <c r="J7" s="3">
         <v>32256</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -9026,7 +12274,7 @@
         <v>226233</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -9055,7 +12303,7 @@
         <v>401579</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +12332,7 @@
         <v>807069</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -9113,7 +12361,7 @@
         <v>173166</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -9142,7 +12390,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -9171,7 +12419,7 @@
         <v>262679</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -9200,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -9232,7 +12480,7 @@
         <v>727188</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -10141,17 +13389,65 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22">
         <v>19695000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="22">
         <v>8340291</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V1:AB1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H7:H46">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A31C9B3-5331-1C4B-B139-B0F8579CCB57}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:AB6">
+    <cfRule type="expression" dxfId="139" priority="7">
+      <formula>K$6&lt;&gt;" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:AB46">
+    <cfRule type="expression" dxfId="135" priority="2" stopIfTrue="1">
+      <formula>AND(WEEKDAY(K$6,2)&gt;5,$B7&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="5">
+      <formula>AND(K$6&gt;=$D7,WORKDAY.INTL($D7,$G7,1)-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="4">
+      <formula>AND(K$6&gt;=WORKDAY.INTL($D7,$G7,1),$H7&lt;&gt;1,K$6&lt;=$E7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="3" stopIfTrue="1">
+      <formula>AND(K$6&gt;=WORKDAY.INTL($D7,$G7,1),$H7=0,K$6&lt;=$E7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:AB52">
+    <cfRule type="expression" dxfId="129" priority="1">
+      <formula>$A7="Grand Total"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -10167,13 +13463,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>723900</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>381000</xdr:rowOff>
+                    <xdr:rowOff>368300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10184,6 +13480,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A31C9B3-5331-1C4B-B139-B0F8579CCB57}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7:H46</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
         <x14:slicer r:id="rId5"/>
